--- a/pinewoodBOM.xlsx
+++ b/pinewoodBOM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28816"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07D489A6-4F9D-4613-925F-ED1927D527D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2B0B30C-631A-4201-9C89-701EB9616F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,11 +31,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
   <si>
     <t>BOM</t>
   </si>
   <si>
+    <t>total:</t>
+  </si>
+  <si>
     <t>ITEM</t>
   </si>
   <si>
@@ -45,15 +48,39 @@
     <t>PRICE (ESTIMATE)</t>
   </si>
   <si>
-    <t>TOT</t>
+    <t>TOTAL</t>
   </si>
   <si>
     <t>WEBSITE</t>
   </si>
   <si>
+    <t>|</t>
+  </si>
+  <si>
     <t>COMMENTS</t>
   </si>
   <si>
+    <t>PURPOSE</t>
+  </si>
+  <si>
+    <t>Placement Display</t>
+  </si>
+  <si>
+    <t>Time display</t>
+  </si>
+  <si>
+    <t>150 ohm resistors</t>
+  </si>
+  <si>
+    <t>MUX-&gt;FET</t>
+  </si>
+  <si>
+    <t>47 ohm resistors</t>
+  </si>
+  <si>
+    <t>SHIFT REG PD</t>
+  </si>
+  <si>
     <t>TLC59211</t>
   </si>
   <si>
@@ -63,22 +90,109 @@
     <t>NOT KEPT IN STOCK DIGIKEY</t>
   </si>
   <si>
+    <t>SHIFT REG</t>
+  </si>
+  <si>
     <t>74HC138</t>
   </si>
   <si>
-    <t>pn2907a</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/central-semiconductor-corp/PN2907A-PBFREE/4806938</t>
-  </si>
-  <si>
-    <t>OBSOLETE</t>
-  </si>
-  <si>
-    <t>150 ohm resistors</t>
+    <t>MUX</t>
+  </si>
+  <si>
+    <t>2N4403</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/diotec-semiconductor/2N4403/22193470</t>
+  </si>
+  <si>
+    <t>replacement for pn2907a</t>
+  </si>
+  <si>
+    <t>FET</t>
+  </si>
+  <si>
+    <t>IR Sensors</t>
+  </si>
+  <si>
+    <t>IR333-A</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/everlight-electronics-co-ltd/IR333-A/2675571</t>
+  </si>
+  <si>
+    <t>TRANSMITTER</t>
+  </si>
+  <si>
+    <t>PT204-6B</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/everlight-electronics-co-ltd/PT204-6B/2675642?s=N4IgTCBcDaIAoBUwAYAsBaAbAIRAXQF8g</t>
+  </si>
+  <si>
+    <t>RECEIVER</t>
+  </si>
+  <si>
+    <t>220 ohm</t>
+  </si>
+  <si>
+    <t>TRANSMITTER R</t>
+  </si>
+  <si>
+    <t>56k ohm</t>
+  </si>
+  <si>
+    <t>RECEIVER R</t>
+  </si>
+  <si>
+    <t>1k ohm</t>
+  </si>
+  <si>
+    <t>OPAMP R</t>
+  </si>
+  <si>
+    <t>LM339N</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/texas-instruments/LM339N-NOPB/4733938</t>
+  </si>
+  <si>
+    <t>OPAMP</t>
+  </si>
+  <si>
+    <t>Logic</t>
   </si>
   <si>
     <t>STM32F091RC</t>
+  </si>
+  <si>
+    <t>Programming</t>
+  </si>
+  <si>
+    <t>.1uf</t>
+  </si>
+  <si>
+    <t>Debouncing</t>
+  </si>
+  <si>
+    <t>NRST button</t>
+  </si>
+  <si>
+    <t>RESET</t>
+  </si>
+  <si>
+    <t>Power management</t>
+  </si>
+  <si>
+    <t>100nf</t>
+  </si>
+  <si>
+    <t>decoupling</t>
+  </si>
+  <si>
+    <t>1uf</t>
+  </si>
+  <si>
+    <t>4.7uf</t>
   </si>
 </sst>
 </file>
@@ -88,7 +202,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +218,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -113,7 +235,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -121,15 +243,122 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -465,141 +694,559 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="1.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D1" s="8">
+        <f>SUM(B9,B16,B24,B30,B3)</f>
+        <v>34.9</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3.01</v>
-      </c>
-      <c r="D3" s="2">
-        <f>B3*C3</f>
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>8</v>
       </c>
+      <c r="H2" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4"/>
       <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" ref="D4:D7" si="0">B4*C4</f>
-        <v>3.3000000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="D4" s="2"/>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="D5" s="2"/>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="D6" s="2"/>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="D7" s="2"/>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="D8" s="2"/>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
+      <c r="B9" s="2">
+        <f>SUM(D10:D14)</f>
+        <v>19.329999999999998</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
         <v>20</v>
       </c>
-      <c r="C5" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>9.2000000000000011</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="C10">
+        <v>0.1</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" ref="D10:D11" si="0">B10*C10</f>
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B6">
+      <c r="B11">
         <v>20</v>
       </c>
-      <c r="C6">
+      <c r="C11">
         <v>0.1</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D11" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" t="s">
         <v>15</v>
       </c>
-      <c r="B7">
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3.01</v>
+      </c>
+      <c r="D12" s="2">
+        <f>B12*C12</f>
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:D32" si="1">B13*C13</f>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="1"/>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2">
+        <f>SUM(D17:D22)</f>
+        <v>5.57</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="1"/>
+        <v>1.72</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="1"/>
+        <v>1.36</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>0.1</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>0.1</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>0.1</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="C22" s="2">
+        <v>1.29</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="1"/>
+        <v>1.29</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="D23" s="2"/>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="2">
+        <f>SUM(D25:D28)</f>
         <v>10</v>
       </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
+      <c r="D24" s="2"/>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="D9" s="2">
-        <f>SUM(D3:D7)</f>
-        <v>33.53</v>
+      <c r="D25" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="D28" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="D29" s="2"/>
+      <c r="F29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="2">
+        <f>SUM(D31:D38)</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="F30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="F34" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" xr:uid="{ED58E067-27D5-43DD-B6FF-0A916F92372B}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{66196CE2-07B1-4C0C-8792-957582CC6AA2}"/>
+    <hyperlink ref="E14" r:id="rId1" xr:uid="{4F0D8D99-9042-4E4E-A02E-63C5469C7CCB}"/>
+    <hyperlink ref="E12" r:id="rId2" xr:uid="{93C674CB-023A-425E-AAC6-4382E651C255}"/>
+    <hyperlink ref="E18" r:id="rId3" xr:uid="{F331086A-3CA4-4D62-B655-3CB231D2EB56}"/>
+    <hyperlink ref="E17" r:id="rId4" xr:uid="{C38F5A56-BC00-4249-981D-6C39951D74FA}"/>
+    <hyperlink ref="E22" r:id="rId5" xr:uid="{A0C923BE-8463-4CDC-AD1E-423DEBD148FC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
